--- a/Geomorphology/Colmillo/Colmillo_notes.xlsx
+++ b/Geomorphology/Colmillo/Colmillo_notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Ecuador2021/Ecuador2021/Geomorphology/Colmillo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whitm\OneDrive - University of North Carolina at Chapel Hill\Ecuador2021\Ecuador2021\Geomorphology\Colmillo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{39B9CC17-FF5D-47C8-A46A-E4297961AF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F2098CA-A2C1-4D78-8408-B5D7A626311C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA4AEF2-A07B-4538-A870-E27F1569C57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{AD3F54C6-967E-4943-8224-5776EC6F2391}"/>
+    <workbookView xWindow="2230" yWindow="140" windowWidth="15860" windowHeight="9530" xr2:uid="{AD3F54C6-967E-4943-8224-5776EC6F2391}"/>
   </bookViews>
   <sheets>
     <sheet name="July9 2021" sheetId="1" r:id="rId1"/>
@@ -809,27 +809,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0766A555-290B-4D70-A6A9-9F46A6F8DC20}">
   <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H104" sqref="H104"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44386</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -843,7 +843,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -857,7 +857,7 @@
         <v>3951.2114259999898</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -868,7 +868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -894,7 +894,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0</v>
       </c>
@@ -923,7 +923,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -934,7 +934,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>20</v>
       </c>
@@ -945,7 +945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>30</v>
       </c>
@@ -956,7 +956,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>40</v>
       </c>
@@ -967,7 +967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>42</v>
       </c>
@@ -996,7 +996,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>50</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>60</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>70</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>80</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>90</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>93</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>100</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>110</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>120</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>130</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>139</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>140</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>149</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>150</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>160</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>170</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>180</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>182</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>190</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>194</v>
       </c>
@@ -1261,7 +1261,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>200</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>210</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>216</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>220</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>230</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>240</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>250</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>260</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>263</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>270</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>280</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>286</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>290</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>300</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>301</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>310</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>320</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>330</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>338</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>340</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>350</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>360</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>361</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>370</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>380</v>
       </c>
@@ -1623,7 +1623,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>390</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>396</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>400</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>407</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>410</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>420</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>430</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>440</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>445</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>450</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>460</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>470</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>480</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>490</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>500</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>510</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>520</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>530</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>540</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>550</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>560</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>570</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>580</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>590</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>600</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>610</v>
       </c>
@@ -2002,7 +2002,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>620</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>625</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>630</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>640</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>650</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>660</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>670</v>
       </c>
@@ -2109,7 +2109,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>674</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>680</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>690</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>700</v>
       </c>
@@ -2171,7 +2171,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>710</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>720</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>730</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>740</v>
       </c>
@@ -2233,7 +2233,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>745</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>750</v>
       </c>
@@ -2283,26 +2283,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25757DB2-562B-42A3-9BA7-006D7693D831}">
   <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>44393</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -2344,12 +2344,12 @@
         <v>0.40625</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>91</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>0.5756944444444444</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13">
         <f>A12+10</f>
         <v>10</v>
@@ -2424,7 +2424,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" ref="A14:A80" si="0">A13+10</f>
         <v>20</v>
@@ -2436,7 +2436,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2448,7 +2448,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2460,7 +2460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>45</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>48</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <f>A16+10</f>
         <v>50</v>
@@ -2524,7 +2524,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2536,7 +2536,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -2548,7 +2548,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>80</v>
@@ -2560,7 +2560,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>83</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <f>A22+10</f>
         <v>90</v>
@@ -2601,7 +2601,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -2631,7 +2631,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>110</v>
@@ -2643,7 +2643,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -2655,7 +2655,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>130</v>
@@ -2667,7 +2667,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>134</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <f>A28+10</f>
         <v>140</v>
@@ -2711,7 +2711,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>150</v>
@@ -2738,7 +2738,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>160</v>
@@ -2750,7 +2750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>170</v>
@@ -2762,7 +2762,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>180</v>
@@ -2774,7 +2774,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>190</v>
@@ -2786,7 +2786,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>194</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <f>A35+10</f>
         <v>200</v>
@@ -2842,7 +2842,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>202</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <f>A37+10</f>
         <v>210</v>
@@ -2868,7 +2868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>220</v>
@@ -2880,7 +2880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>230</v>
@@ -2892,7 +2892,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>240</v>
@@ -2904,7 +2904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>241</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>245</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>246</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <f>A42+10</f>
         <v>250</v>
@@ -2988,7 +2988,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>258</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <f>A46+10</f>
         <v>260</v>
@@ -3029,7 +3029,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>261</v>
       </c>
@@ -3043,7 +3043,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
         <f>A48+10</f>
         <v>270</v>
@@ -3055,7 +3055,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>280</v>
@@ -3067,7 +3067,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>290</v>
@@ -3079,7 +3079,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -3106,7 +3106,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>305</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>310</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>320</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>329</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58">
         <f>A56+10</f>
         <v>330</v>
@@ -3198,7 +3198,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>340</v>
@@ -3213,7 +3213,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>349</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61">
         <f>A59+10</f>
         <v>350</v>
@@ -3257,7 +3257,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>360</v>
@@ -3272,7 +3272,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>370</v>
@@ -3284,7 +3284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>380</v>
@@ -3296,7 +3296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>384</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>388</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67">
         <f>A64+10</f>
         <v>390</v>
@@ -3351,7 +3351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -3378,7 +3378,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>410</v>
@@ -3390,7 +3390,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>420</v>
@@ -3402,7 +3402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>429</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72">
         <f>A70+10</f>
         <v>430</v>
@@ -3458,7 +3458,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>435</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74">
         <f>A72+10</f>
         <v>440</v>
@@ -3487,7 +3487,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>448</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76">
         <f>A74+10</f>
         <v>450</v>
@@ -3528,7 +3528,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77">
         <f t="shared" si="0"/>
         <v>460</v>
@@ -3540,7 +3540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>467</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79">
         <f>A77+10</f>
         <v>470</v>
@@ -3566,7 +3566,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80">
         <f t="shared" si="0"/>
         <v>480</v>
@@ -3578,7 +3578,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81">
         <f t="shared" ref="A81:A89" si="1">A80+10</f>
         <v>490</v>
@@ -3590,7 +3590,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>500</v>
@@ -3617,7 +3617,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>510</v>
@@ -3629,7 +3629,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>520</v>
@@ -3641,7 +3641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>530</v>
@@ -3653,7 +3653,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>540</v>
@@ -3665,7 +3665,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>550</v>
@@ -3692,7 +3692,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>560</v>
@@ -3704,7 +3704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>570</v>
@@ -3716,7 +3716,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>579</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91">
         <f>A89+10</f>
         <v>580</v>
@@ -3760,7 +3760,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92">
         <f>A91+10</f>
         <v>590</v>
@@ -3775,7 +3775,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93">
         <f>A92+10</f>
         <v>600</v>
@@ -3805,7 +3805,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>89</v>
       </c>
